--- a/BackTest/2020-01-21 BackTest AMO.xlsx
+++ b/BackTest/2020-01-21 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2992,7 +2992,7 @@
         <v>-6660726.9829</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-9135281.7959</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-10783633.6779</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-11482700.1729</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-10164903.0239</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-8906436.210900001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9868251.339900002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-11194524.2519</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-12605554.7869</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-11787827.6179</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-14096831.6189</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-13024831.5789</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14546047.0249</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-16724761.59890001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-16250118.90590001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-16707810.07490001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-20894982.51190001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-23699812.31310001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-24827088.70910002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-23712709.85710002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-25208498.01610002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-24255158.64910002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-25674664.94710002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-27000937.85910002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-26005219.68010002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-28403492.63110002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-27653571.56110002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-26284919.83710002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-26810417.10410002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-25407862.33110002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-26284919.83610002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-26210069.92400002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-25517504.51610002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-26818350.14010002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-28473217.78510002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-28471216.44640002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-27032761.46370002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-27032761.46370002</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-30103072.19980001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-28844605.38680001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-28822592.62630001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-29606416.74530001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-29604383.87160001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-30409445.42780001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-32448085.71480001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-32448085.71480001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-34356916.42450001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-35875875.38260002</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-35152956.58280002</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-35945256.46480002</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-36746032.10880002</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-36744042.64830001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-36949457.68790001</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-35758796.97390001</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-36771466.67790001</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-35638082.90180001</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-37116919.53580002</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-36146628.64380002</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-36144657.87710002</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-36903054.70910002</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-35551354.51010002</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-36801345.56010002</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-47238719.01330001</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-46544964.46580001</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-48469536.04190001</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-47706825.2296</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -21241,10 +21241,14 @@
         <v>-37292010.60048281</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0.2516</v>
+      </c>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
@@ -21274,11 +21278,19 @@
         <v>-38457244.02648281</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21310,8 +21322,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +21358,19 @@
         <v>-38620505.51148281</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J635" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21376,8 +21402,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21409,8 +21441,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21442,8 +21480,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21475,8 +21519,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21508,8 +21558,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +21597,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21633,19 @@
         <v>-38634060.42208282</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21607,8 +21677,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21640,8 +21716,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21673,8 +21755,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21706,8 +21794,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21739,8 +21833,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21772,8 +21872,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21805,8 +21911,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21838,8 +21950,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21871,8 +21989,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21904,8 +22028,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21937,8 +22067,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22103,19 @@
         <v>-37591931.66908282</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,15 +22144,19 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I655" t="n">
         <v>0.2517</v>
       </c>
       <c r="J655" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K655" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,15 +22185,17 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.2513</v>
+      </c>
       <c r="J656" t="n">
-        <v>0.2517</v>
+        <v>0.2516</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L656" t="n">
@@ -22080,11 +22230,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>0.2517</v>
+        <v>0.2516</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L657" t="n">
@@ -22118,8 +22268,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22148,11 +22304,19 @@
         <v>-40719028.39828282</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J659" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22181,11 +22345,19 @@
         <v>-40003010.37828282</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J660" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22214,11 +22386,19 @@
         <v>-38922534.57528281</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J661" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22247,15 +22427,19 @@
         <v>-39825019.36828281</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>0.2518</v>
       </c>
       <c r="J662" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K662" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22284,17 +22468,17 @@
         <v>-39117477.11028281</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>0.2516</v>
       </c>
       <c r="J663" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L663" t="n">
@@ -22325,17 +22509,17 @@
         <v>-40045389.19028281</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>0.2519</v>
       </c>
       <c r="J664" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L664" t="n">
@@ -22366,11 +22550,19 @@
         <v>-41303856.00328281</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J665" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22399,7 +22591,7 @@
         <v>-42087680.12228281</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>0.2516</v>
@@ -22407,7 +22599,11 @@
       <c r="J666" t="n">
         <v>0.2516</v>
       </c>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22436,15 +22632,17 @@
         <v>-41083486.18128281</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>0.2515</v>
+      </c>
       <c r="J667" t="n">
         <v>0.2516</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L667" t="n">
@@ -22475,7 +22673,7 @@
         <v>-39791116.31928281</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>0.2516</v>
@@ -22485,7 +22683,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L668" t="n">
@@ -22516,11 +22714,19 @@
         <v>-40939398.22128281</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J669" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22549,15 +22755,19 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>0.2514</v>
       </c>
       <c r="J670" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="K670" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22586,17 +22796,17 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>0.2515</v>
       </c>
       <c r="J671" t="n">
-        <v>0.2514</v>
+        <v>0.2516</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L671" t="n">
@@ -22627,17 +22837,17 @@
         <v>-38405513.07128281</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>0.2515</v>
       </c>
       <c r="J672" t="n">
-        <v>0.2514</v>
+        <v>0.2516</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L672" t="n">
@@ -22668,15 +22878,19 @@
         <v>-39613125.30928281</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0.2518</v>
       </c>
       <c r="J673" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K673" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22705,17 +22919,17 @@
         <v>-40651222.30028281</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>0.2517</v>
       </c>
       <c r="J674" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L674" t="n">
@@ -22746,17 +22960,17 @@
         <v>-39367328.2002828</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>0.2514</v>
       </c>
       <c r="J675" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -22787,17 +23001,17 @@
         <v>-37867022.51818281</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>0.2516</v>
       </c>
       <c r="J676" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -22828,13 +23042,13 @@
         <v>-39311956.10318281</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>0.2519</v>
       </c>
       <c r="J677" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -22869,13 +23083,13 @@
         <v>-39311956.10318281</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>0.2517</v>
       </c>
       <c r="J678" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -22910,13 +23124,13 @@
         <v>-40299198.51918281</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>0.2517</v>
       </c>
       <c r="J679" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -22951,13 +23165,13 @@
         <v>-38888167.98418281</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I680" t="n">
         <v>0.2516</v>
       </c>
       <c r="J680" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -22992,13 +23206,13 @@
         <v>-38888167.98418281</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>0.2518</v>
       </c>
       <c r="J681" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23033,13 +23247,13 @@
         <v>-38888167.98418281</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>0.2518</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2518</v>
+        <v>0.2516</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23052,6 +23266,6 @@
       <c r="M682" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest AMO.xlsx
+++ b/BackTest/2020-01-21 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2992,7 +2992,7 @@
         <v>-6660726.9829</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-9135281.7959</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-10783633.6779</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-11482700.1729</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-8906436.210900001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9868251.339900002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-11194524.2519</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-12605554.7869</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-11787827.6179</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-14096831.6189</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14546047.0249</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-19631580.2929</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-16724761.59890001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-16250118.90590001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-16707810.07490001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-19882312.80790001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-23699812.31310001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-24827088.70910002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-23712709.85710002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-25208498.01610002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-24255158.64910002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-25674664.94710002</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-27000937.85910002</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-26005219.68010002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-28403492.63110002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-27653571.56110002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-26284919.83710002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-26810417.10410002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-25407862.33110002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-26284919.83610002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-25403440.54810002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-25400818.51800002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-26210069.92400002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-25517504.51610002</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-26818350.14010002</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-28473217.78510002</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-28471216.44640002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-27032761.46370002</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-27032761.46370002</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-30103072.19980001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-28844605.38680001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-28822592.62630001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-29606416.74530001</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-29604383.87160001</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-30409445.42780001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-36744042.64830001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45648169.5821</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-46889684.87010001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-44180594.56380001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-45201740.02980001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-46544964.46580001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-50016370.09111374</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-51804388.15111374</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-51749828.54291373</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-51724401.25591373</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-51648119.39391374</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-52029528.70091373</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-60008892.99961373</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-59311034.72121373</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16621,10 +16621,14 @@
         <v>-52591981.3210137</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.254</v>
+      </c>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
@@ -16654,11 +16658,19 @@
         <v>-52570574.91581371</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16690,8 +16702,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16753,10 +16771,14 @@
         <v>-52778768.3320137</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16789,8 +16811,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16822,8 +16850,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -21241,14 +21275,10 @@
         <v>-37292010.60048281</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J632" t="n">
-        <v>0.2516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
@@ -21278,1783 +21308,1481 @@
         <v>-38457244.02648281</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F634" t="n">
+        <v>775348.357</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-37681895.66948281</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F635" t="n">
+        <v>938609.8419999999</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-38620505.51148281</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1081879.3022</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-37538626.20928282</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F637" t="n">
+        <v>749921.0699999999</v>
+      </c>
+      <c r="G637" t="n">
+        <v>-38288547.27928282</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F638" t="n">
+        <v>10468.8772</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-38278078.40208282</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1368651.724</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-39646730.12608282</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F640" t="n">
+        <v>944863.605</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-38701866.52108282</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1470360.872</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-37231505.64908282</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1402554.773</v>
+      </c>
+      <c r="G642" t="n">
+        <v>-38634060.42208282</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F643" t="n">
+        <v>877057.505</v>
+      </c>
+      <c r="G643" t="n">
+        <v>-37757002.91708282</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="F644" t="n">
+        <v>847598.456</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-38604601.37308282</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="E645" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1529691.209</v>
+      </c>
+      <c r="G645" t="n">
+        <v>-37074910.16408282</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1199136.476</v>
+      </c>
+      <c r="G646" t="n">
+        <v>-35875773.68808281</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1394079.011</v>
+      </c>
+      <c r="G647" t="n">
+        <v>-35875773.68808281</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="E648" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="F648" t="n">
+        <v>809251.406</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-36685025.09408282</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F649" t="n">
+        <v>978766.654</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-35706258.44008282</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1427982.06</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-37134240.50008282</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E651" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1139806.139</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-35994434.36108282</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="E652" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1300845.624</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-37295279.98508282</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="E653" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1216088.001</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-38511367.98608282</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E654" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F654" t="n">
+        <v>919436.317</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-37591931.66908282</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="E655" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="F655" t="n">
+        <v>894009.03</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-38485940.69908282</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="E656" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1360175.961</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-38485940.69908282</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E657" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="F657" t="n">
+        <v>300797.4508</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-38185143.24828282</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E658" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1436457.823</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-39621601.07128282</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E659" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1097427.327</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-40719028.39828282</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
         <v>0.2516</v>
       </c>
-      <c r="J633" t="n">
+      <c r="C660" t="n">
         <v>0.2516</v>
       </c>
-      <c r="K633" t="inlineStr">
+      <c r="D660" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E660" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F660" t="n">
+        <v>716018.02</v>
+      </c>
+      <c r="G660" t="n">
+        <v>-40003010.37828282</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E661" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1080475.803</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-38922534.57528281</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E662" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F662" t="n">
+        <v>902484.7929999999</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-39825019.36828281</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E663" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F663" t="n">
+        <v>707542.258</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-39117477.11028281</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E664" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F664" t="n">
+        <v>927912.08</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-40045389.19028281</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E665" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1258466.813</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-41303856.00328281</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E666" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F666" t="n">
+        <v>783824.1189999999</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-42087680.12228281</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E667" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1004193.941</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-41083486.18128281</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E668" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1292369.862</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-39791116.31928281</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="E669" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1148281.902</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-40939398.22128281</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1504263.922</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-39435134.29928281</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E671" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1266942.575</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-39435134.29928281</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E672" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1029621.228</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-38405513.07128281</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1207612.238</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-39613125.30928281</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="C674" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="E674" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1038096.991</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-40651222.30028281</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1283894.1</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-39367328.2002828</v>
+      </c>
+      <c r="H675" t="n">
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J675" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1500305.6821</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-37867022.51818281</v>
+      </c>
+      <c r="H676" t="n">
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J676" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="K676" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C634" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D634" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E634" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F634" t="n">
-        <v>775348.357</v>
-      </c>
-      <c r="G634" t="n">
-        <v>-37681895.66948281</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K634" t="inlineStr">
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C677" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E677" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1444933.585</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-39311956.10318281</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="K677" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C635" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D635" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E635" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F635" t="n">
-        <v>938609.8419999999</v>
-      </c>
-      <c r="G635" t="n">
-        <v>-38620505.51148281</v>
-      </c>
-      <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J635" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C636" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D636" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E636" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F636" t="n">
-        <v>1081879.3022</v>
-      </c>
-      <c r="G636" t="n">
-        <v>-37538626.20928282</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C637" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D637" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E637" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F637" t="n">
-        <v>749921.0699999999</v>
-      </c>
-      <c r="G637" t="n">
-        <v>-38288547.27928282</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C638" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D638" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E638" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F638" t="n">
-        <v>10468.8772</v>
-      </c>
-      <c r="G638" t="n">
-        <v>-38278078.40208282</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C639" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D639" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E639" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F639" t="n">
-        <v>1368651.724</v>
-      </c>
-      <c r="G639" t="n">
-        <v>-39646730.12608282</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C640" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D640" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E640" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F640" t="n">
-        <v>944863.605</v>
-      </c>
-      <c r="G640" t="n">
-        <v>-38701866.52108282</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="C641" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="D641" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="E641" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="F641" t="n">
-        <v>1470360.872</v>
-      </c>
-      <c r="G641" t="n">
-        <v>-37231505.64908282</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="C642" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="D642" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="E642" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="F642" t="n">
-        <v>1402554.773</v>
-      </c>
-      <c r="G642" t="n">
-        <v>-38634060.42208282</v>
-      </c>
-      <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J642" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C643" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D643" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E643" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F643" t="n">
-        <v>877057.505</v>
-      </c>
-      <c r="G643" t="n">
-        <v>-37757002.91708282</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>0.2511</v>
-      </c>
-      <c r="C644" t="n">
-        <v>0.2511</v>
-      </c>
-      <c r="D644" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="E644" t="n">
-        <v>0.2511</v>
-      </c>
-      <c r="F644" t="n">
-        <v>847598.456</v>
-      </c>
-      <c r="G644" t="n">
-        <v>-38604601.37308282</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="C645" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="D645" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="E645" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="F645" t="n">
-        <v>1529691.209</v>
-      </c>
-      <c r="G645" t="n">
-        <v>-37074910.16408282</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C646" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D646" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E646" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F646" t="n">
-        <v>1199136.476</v>
-      </c>
-      <c r="G646" t="n">
-        <v>-35875773.68808281</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C647" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D647" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E647" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F647" t="n">
-        <v>1394079.011</v>
-      </c>
-      <c r="G647" t="n">
-        <v>-35875773.68808281</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="C648" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="D648" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="E648" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="F648" t="n">
-        <v>809251.406</v>
-      </c>
-      <c r="G648" t="n">
-        <v>-36685025.09408282</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C649" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D649" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E649" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F649" t="n">
-        <v>978766.654</v>
-      </c>
-      <c r="G649" t="n">
-        <v>-35706258.44008282</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="C650" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="D650" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="E650" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="F650" t="n">
-        <v>1427982.06</v>
-      </c>
-      <c r="G650" t="n">
-        <v>-37134240.50008282</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C651" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D651" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E651" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F651" t="n">
-        <v>1139806.139</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-35994434.36108282</v>
-      </c>
-      <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="C652" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="D652" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="E652" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="F652" t="n">
-        <v>1300845.624</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-37295279.98508282</v>
-      </c>
-      <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="C653" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="D653" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="E653" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="F653" t="n">
-        <v>1216088.001</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-38511367.98608282</v>
-      </c>
-      <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C654" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D654" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E654" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F654" t="n">
-        <v>919436.317</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-37591931.66908282</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="J654" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="C655" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="D655" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="E655" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="F655" t="n">
-        <v>894009.03</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-38485940.69908282</v>
-      </c>
-      <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J655" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="C656" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="D656" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="E656" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="F656" t="n">
-        <v>1360175.961</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-38485940.69908282</v>
-      </c>
-      <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="J656" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="C657" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="D657" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="E657" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="F657" t="n">
-        <v>300797.4508</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-38185143.24828282</v>
-      </c>
-      <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C658" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D658" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E658" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F658" t="n">
-        <v>1436457.823</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-39621601.07128282</v>
-      </c>
-      <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C659" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D659" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E659" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F659" t="n">
-        <v>1097427.327</v>
-      </c>
-      <c r="G659" t="n">
-        <v>-40719028.39828282</v>
-      </c>
-      <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J659" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C660" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D660" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E660" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F660" t="n">
-        <v>716018.02</v>
-      </c>
-      <c r="G660" t="n">
-        <v>-40003010.37828282</v>
-      </c>
-      <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J660" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C661" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D661" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E661" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F661" t="n">
-        <v>1080475.803</v>
-      </c>
-      <c r="G661" t="n">
-        <v>-38922534.57528281</v>
-      </c>
-      <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J661" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C662" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D662" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E662" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F662" t="n">
-        <v>902484.7929999999</v>
-      </c>
-      <c r="G662" t="n">
-        <v>-39825019.36828281</v>
-      </c>
-      <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J662" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C663" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D663" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E663" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F663" t="n">
-        <v>707542.258</v>
-      </c>
-      <c r="G663" t="n">
-        <v>-39117477.11028281</v>
-      </c>
-      <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J663" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C664" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D664" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E664" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F664" t="n">
-        <v>927912.08</v>
-      </c>
-      <c r="G664" t="n">
-        <v>-40045389.19028281</v>
-      </c>
-      <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J664" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C665" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D665" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E665" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F665" t="n">
-        <v>1258466.813</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-41303856.00328281</v>
-      </c>
-      <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J665" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C666" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D666" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E666" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F666" t="n">
-        <v>783824.1189999999</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-42087680.12228281</v>
-      </c>
-      <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J666" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C667" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D667" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E667" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F667" t="n">
-        <v>1004193.941</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-41083486.18128281</v>
-      </c>
-      <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J667" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C668" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D668" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E668" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F668" t="n">
-        <v>1292369.862</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-39791116.31928281</v>
-      </c>
-      <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J668" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="C669" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="D669" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="E669" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="F669" t="n">
-        <v>1148281.902</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-40939398.22128281</v>
-      </c>
-      <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J669" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C670" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D670" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E670" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F670" t="n">
-        <v>1504263.922</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-39435134.29928281</v>
-      </c>
-      <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="J670" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C671" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D671" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E671" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F671" t="n">
-        <v>1266942.575</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-39435134.29928281</v>
-      </c>
-      <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J671" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C672" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D672" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E672" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F672" t="n">
-        <v>1029621.228</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-38405513.07128281</v>
-      </c>
-      <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J672" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C673" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D673" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E673" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F673" t="n">
-        <v>1207612.238</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-39613125.30928281</v>
-      </c>
-      <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J673" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="C674" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="D674" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="E674" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="F674" t="n">
-        <v>1038096.991</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-40651222.30028281</v>
-      </c>
-      <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J674" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C675" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D675" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E675" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F675" t="n">
-        <v>1283894.1</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-39367328.2002828</v>
-      </c>
-      <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="J675" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C676" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D676" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E676" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F676" t="n">
-        <v>1500305.6821</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-37867022.51818281</v>
-      </c>
-      <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J676" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C677" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D677" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E677" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F677" t="n">
-        <v>1444933.585</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-39311956.10318281</v>
-      </c>
-      <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J677" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23089,13 +22817,9 @@
         <v>0.2517</v>
       </c>
       <c r="J678" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2517</v>
+      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23130,11 +22854,11 @@
         <v>0.2517</v>
       </c>
       <c r="J679" t="n">
-        <v>0.2516</v>
+        <v>0.2517</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L679" t="n">
@@ -23171,11 +22895,11 @@
         <v>0.2516</v>
       </c>
       <c r="J680" t="n">
-        <v>0.2516</v>
+        <v>0.2517</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L680" t="n">
@@ -23212,13 +22936,9 @@
         <v>0.2518</v>
       </c>
       <c r="J681" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2518</v>
+      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23253,11 +22973,11 @@
         <v>0.2518</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2516</v>
+        <v>0.2518</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L682" t="n">
@@ -23266,6 +22986,6 @@
       <c r="M682" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest AMO.xlsx
+++ b/BackTest/2020-01-21 BackTest AMO.xlsx
@@ -2926,7 +2926,7 @@
         <v>-8567405.7159</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6660726.9829</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7927669.5579</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-10164903.0239</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-12622506.3119</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-13024831.5789</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-19631580.2929</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-19292549.7979</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-18585007.5399</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-16292497.7179</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-18717079.38190001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-20894982.51190001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-19882312.80790001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-21026260.98410001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-21068639.79610002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-21068639.79610002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-23195688.35210001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-22284727.79710001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-23051600.39210001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-22327106.60910001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-23449961.22310001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-25340056.23210002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-26810417.10410002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-25407862.33110002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-26797519.55910002</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-25403440.54810002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-26210069.92400002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-25231303.27000002</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-26659285.33000002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-25517504.51610002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-26818350.14010002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-28032478.14110002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-35945256.46480002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-45648169.5821</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-46889684.87010001</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-44180594.56380001</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-45201740.02980001</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-46544964.46580001</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-50016370.09111374</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-51804388.15111374</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-51749828.54291373</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-51724401.25591373</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-51648119.39391374</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-52029528.70091373</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-60008892.99961373</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-59311034.72121373</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16621,14 +16621,10 @@
         <v>-52591981.3210137</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J492" t="n">
-        <v>0.254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
@@ -16658,19 +16654,11 @@
         <v>-52570574.91581371</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J493" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16702,14 +16690,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +16753,10 @@
         <v>-52778768.3320137</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J496" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16811,14 +16789,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16850,14 +16822,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17777,10 +17743,14 @@
         <v>-39995180.84981371</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.2511</v>
+      </c>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
@@ -17813,8 +17783,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17846,8 +17822,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21704,10 +21686,14 @@
         <v>-37074910.16408282</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0.2511</v>
+      </c>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
@@ -21737,11 +21723,19 @@
         <v>-35875773.68808281</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21773,8 +21767,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21902,10 +21902,14 @@
         <v>-35994434.36108282</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J651" t="n">
+        <v>0.2512</v>
+      </c>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
@@ -21935,11 +21939,19 @@
         <v>-37295279.98508282</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J652" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21968,11 +21980,19 @@
         <v>-38511367.98608282</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="J653" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22001,10 +22021,14 @@
         <v>-37591931.66908282</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0.2512</v>
+      </c>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
@@ -22034,11 +22058,19 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J655" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22067,11 +22099,19 @@
         <v>-38485940.69908282</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="J656" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22100,10 +22140,14 @@
         <v>-38185143.24828282</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="J657" t="n">
+        <v>0.2513</v>
+      </c>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
@@ -22133,11 +22177,19 @@
         <v>-39621601.07128282</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J658" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22166,11 +22218,19 @@
         <v>-40719028.39828282</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J659" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22199,10 +22259,14 @@
         <v>-40003010.37828282</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J660" t="n">
+        <v>0.2515</v>
+      </c>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
@@ -22232,11 +22296,19 @@
         <v>-38922534.57528281</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J661" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22265,11 +22337,19 @@
         <v>-39825019.36828281</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J662" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22298,10 +22378,14 @@
         <v>-39117477.11028281</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J663" t="n">
+        <v>0.2516</v>
+      </c>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
@@ -22331,11 +22415,19 @@
         <v>-40045389.19028281</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J664" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22364,11 +22456,19 @@
         <v>-41303856.00328281</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J665" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22397,10 +22497,14 @@
         <v>-42087680.12228281</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J666" t="n">
+        <v>0.2516</v>
+      </c>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
@@ -22430,11 +22534,19 @@
         <v>-41083486.18128281</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J667" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22463,11 +22575,19 @@
         <v>-39791116.31928281</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J668" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22496,10 +22616,14 @@
         <v>-40939398.22128281</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J669" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
@@ -22529,11 +22653,19 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J670" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22562,11 +22694,19 @@
         <v>-39435134.29928281</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J671" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22595,10 +22735,14 @@
         <v>-38405513.07128281</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J672" t="n">
+        <v>0.2515</v>
+      </c>
       <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
@@ -22628,11 +22772,19 @@
         <v>-39613125.30928281</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J673" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22661,11 +22813,19 @@
         <v>-40651222.30028281</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J674" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22772,9 +22932,11 @@
         <v>-39311956.10318281</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="J677" t="n">
         <v>0.2514</v>
       </c>
